--- a/src/dashboard/data/harvestPolicy/DataFromIan/Selectivity.xlsx
+++ b/src/dashboard/data/harvestPolicy/DataFromIan/Selectivity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -526,6 +526,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -535,7 +547,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="23"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="24" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="42">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -549,6 +561,12 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -562,6 +580,12 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="23" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="24" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH613"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:AH42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49:AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7589,7 +7613,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!$D$42:$AH$42</xm:f>
+              <xm:sqref>D42</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -7601,7 +7646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -7818,103 +7863,103 @@
         <v>46</v>
       </c>
       <c r="F5">
-        <f>(1-EXP(-1.5*M*F3))^3</f>
+        <f t="shared" ref="F5:AD5" si="1">(1-EXP(-1.5*M*F3))^3</f>
         <v>8.1793779796395932E-3</v>
       </c>
       <c r="G5">
-        <f>(1-EXP(-1.5*M*G3))^3</f>
+        <f t="shared" si="1"/>
         <v>4.7584263710585932E-2</v>
       </c>
       <c r="H5">
-        <f>(1-EXP(-1.5*M*H3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.11825767692719684</v>
       </c>
       <c r="I5">
-        <f>(1-EXP(-1.5*M*I3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.2089821727032124</v>
       </c>
       <c r="J5">
-        <f>(1-EXP(-1.5*M*J3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.30802215329887778</v>
       </c>
       <c r="K5">
-        <f>(1-EXP(-1.5*M*K3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.40647338164208119</v>
       </c>
       <c r="L5">
-        <f>(1-EXP(-1.5*M*L3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.49866300864773433</v>
       </c>
       <c r="M5">
-        <f>(1-EXP(-1.5*M*M3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.58155792173450538</v>
       </c>
       <c r="N5">
-        <f>(1-EXP(-1.5*M*N3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.65398594816886479</v>
       </c>
       <c r="O5">
-        <f>(1-EXP(-1.5*M*O3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.71595843630834266</v>
       </c>
       <c r="P5">
-        <f>(1-EXP(-1.5*M*P3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.7681650951385407</v>
       </c>
       <c r="Q5">
-        <f>(1-EXP(-1.5*M*Q3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.81162966547050996</v>
       </c>
       <c r="R5">
-        <f>(1-EXP(-1.5*M*R3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.84749107283501579</v>
       </c>
       <c r="S5">
-        <f>(1-EXP(-1.5*M*S3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.87687384416469427</v>
       </c>
       <c r="T5">
-        <f>(1-EXP(-1.5*M*T3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.90081821862998235</v>
       </c>
       <c r="U5">
-        <f>(1-EXP(-1.5*M*U3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.92024819057984131</v>
       </c>
       <c r="V5">
-        <f>(1-EXP(-1.5*M*V3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.93596243925579936</v>
       </c>
       <c r="W5">
-        <f>(1-EXP(-1.5*M*W3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.94863820512317487</v>
       </c>
       <c r="X5">
-        <f>(1-EXP(-1.5*M*X3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.95884179653300716</v>
       </c>
       <c r="Y5">
-        <f>(1-EXP(-1.5*M*Y3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.96704186883844678</v>
       </c>
       <c r="Z5">
-        <f>(1-EXP(-1.5*M*Z3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.97362322893340947</v>
       </c>
       <c r="AA5">
-        <f>(1-EXP(-1.5*M*AA3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.9788999418512212</v>
       </c>
       <c r="AB5">
-        <f>(1-EXP(-1.5*M*AB3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.98312714666931511</v>
       </c>
       <c r="AC5">
-        <f>(1-EXP(-1.5*M*AC3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.98651136354638724</v>
       </c>
       <c r="AD5">
-        <f>(1-EXP(-1.5*M*AD3))^3</f>
+        <f t="shared" si="1"/>
         <v>0.98921928557327488</v>
       </c>
     </row>
@@ -7929,103 +7974,103 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:AD6" si="1">1/(1+EXP(-(age-ah)/gh))</f>
+        <f t="shared" ref="F6:AD6" si="2">1/(1+EXP(-(age-ah)/gh))</f>
         <v>8.3152802766413209E-7</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1441746022147182E-6</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5397868702434395E-5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3535013046647811E-4</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4726231566347743E-3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7986209962091559E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11920292202211755</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88079707797788231</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98201379003790845</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99752737684336534</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99966464986953363</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99995460213129761</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999385582539779</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999916847197223</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999988746483792</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9999999847700205</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999793884631</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999972105313</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999996224864</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999489098</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999930855</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999990652</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999998734</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999999822</v>
       </c>
     </row>
@@ -8040,103 +8085,103 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" ref="F7:AD7" si="3">1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
         <v>2.3492285806485428E-3</v>
       </c>
       <c r="G7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>1.7650859831625079E-2</v>
       </c>
       <c r="H7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.1182918708277169</v>
       </c>
       <c r="I7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.49752737684336523</v>
       </c>
       <c r="J7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.87410422705359747</v>
       </c>
       <c r="K7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.9640275800758169</v>
       </c>
       <c r="L7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.9501015036657986</v>
       </c>
       <c r="M7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.88046172784741605</v>
       </c>
       <c r="N7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.73101318076130251</v>
       </c>
       <c r="O7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.49999385582539779</v>
       </c>
       <c r="P7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.26894058984196734</v>
       </c>
       <c r="Q7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>0.11920280948695561</v>
       </c>
       <c r="R7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>4.7425857947587136E-2</v>
       </c>
       <c r="S7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>1.7986207900937856E-2</v>
       </c>
       <c r="T7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>6.6928506453378667E-3</v>
       </c>
       <c r="U7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>2.4726231188832992E-3</v>
       </c>
       <c r="V7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>9.1105118929157847E-4</v>
       </c>
       <c r="W7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>3.3535012977492507E-4</v>
       </c>
       <c r="X7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>1.2339457589283231E-4</v>
       </c>
       <c r="Y7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>4.5397868689733833E-5</v>
       </c>
       <c r="Z7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>1.6701421846176956E-5</v>
       </c>
       <c r="AA7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>6.1441746019852417E-6</v>
       </c>
       <c r="AB7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>2.260324297953531E-6</v>
       </c>
       <c r="AC7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>8.3152802776709223E-7</v>
       </c>
       <c r="AD7">
-        <f>1/(1+EXP(-(age-bh)/bg))-1/(1+EXP(-(age-10)/(2*bg)))</f>
+        <f t="shared" si="3"/>
         <v>3.0590222699355962E-7</v>
       </c>
     </row>
@@ -8151,103 +8196,103 @@
         <v>15</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:AD8" si="2">M+fd*va+fb*ba</f>
+        <f t="shared" ref="F8:AD8" si="4">M+fd*va+fb*ba</f>
         <v>0.15003290997285532</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15024725642175649</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1516575306841893</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15698777304547201</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16248957337345254</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16549830747628194</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17673847559092587</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.218785264687482</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25971721664080383</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26792484067341787</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26644989896852395</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26459968660590216</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26362980140279785</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26322299778966202</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26306584270383143</v>
       </c>
       <c r="U8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26300697218437585</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26298516980552594</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26297712940869117</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2629741688336602</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26297307933622538</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26297267848341183</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26297253101125628</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26297247675838265</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26297245679974401</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26297244945735471</v>
       </c>
     </row>
@@ -8270,91 +8315,91 @@
         <v>0.86067965101501409</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:AC9" si="3">G9*EXP(-G8)</f>
+        <f t="shared" ref="H9:AC9" si="5">G9*EXP(-G8)</f>
         <v>0.74061069738365126</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63639381768385694</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.54393502960908913</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.46235834801764752</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39183542913636593</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.32835766370627012</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26383349086213337</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20348676605330709</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15566030959003144</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11925048912616726</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.1526316672998376E-2</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0315815385628755E-2</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.4042660592852877E-2</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.15421221042006E-2</v>
       </c>
       <c r="V9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1934947107599594E-2</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4550095910024668E-2</v>
       </c>
       <c r="X9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8873118943497514E-2</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.450893204259999E-2</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1153924213388811E-2</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5747231335054006E-3</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.5919300017329239E-3</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0676322522220122E-3</v>
       </c>
       <c r="AD9">
@@ -8470,95 +8515,95 @@
         <v>1.7657004006227293E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:AD12" si="4">va+ba</f>
+        <f t="shared" ref="H12:AD12" si="6">va+ba</f>
         <v>0.11833726869641933</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.49786272697383172</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.87657685021023224</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.98201379003790845</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0693044256879161</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3804617278474161</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6118102587391849</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4820076458633062</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2664679666853327</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1188674593564891</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0473804600788847</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0179800637263356</v>
       </c>
       <c r="T12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0066920191173101</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0024725105837211</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0009110359593121</v>
       </c>
       <c r="W12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0003353480686212</v>
       </c>
       <c r="X12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0001233942969461</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0000453978309385</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0000167014167372</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0000061441739105</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0000022603242045</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0000008315280151</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0000003059022253</v>
       </c>
     </row>
@@ -8574,103 +8619,103 @@
         <v>44</v>
       </c>
       <c r="F13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" ref="F13:AD13" si="7">va*wa*(1-EXP(-za))/za</f>
         <v>6.3157537863876836E-9</v>
       </c>
       <c r="G13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>2.7146231158038474E-7</v>
       </c>
       <c r="H13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>4.9813712829822407E-6</v>
       </c>
       <c r="I13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>6.4858087070209164E-5</v>
       </c>
       <c r="J13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>7.0296449890804881E-4</v>
       </c>
       <c r="K13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>6.7379811005501208E-3</v>
       </c>
       <c r="L13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>5.4485492149658393E-2</v>
       </c>
       <c r="M13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.26116814264219207</v>
       </c>
       <c r="N13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.50730287446875733</v>
       </c>
       <c r="O13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.61677171796338481</v>
       </c>
       <c r="P13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.67267375022636999</v>
       </c>
       <c r="Q13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.71288806563975027</v>
       </c>
       <c r="R13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.74494783221622562</v>
       </c>
       <c r="S13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.77095557790786839</v>
       </c>
       <c r="T13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.79207141093538036</v>
       </c>
       <c r="U13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.80917915284738395</v>
       </c>
       <c r="V13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.8230054346758392</v>
       </c>
       <c r="W13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.83415463825750669</v>
       </c>
       <c r="X13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.84312803466510022</v>
       </c>
       <c r="Y13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.85033895911559987</v>
       </c>
       <c r="Z13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.85612624275937044</v>
       </c>
       <c r="AA13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.86076622192584873</v>
       </c>
       <c r="AB13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.86448330976711973</v>
       </c>
       <c r="AC13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.86745912744731657</v>
       </c>
       <c r="AD13">
-        <f>va*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="7"/>
         <v>0.86984026037473572</v>
       </c>
     </row>
@@ -8686,103 +8731,103 @@
         <v>45</v>
       </c>
       <c r="F14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" ref="F14:AD14" si="8">ba*wa*(1-EXP(-za))/za</f>
         <v>1.784323415411581E-5</v>
       </c>
       <c r="G14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>7.7985140746930507E-4</v>
       </c>
       <c r="H14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>1.2979810400655125E-2</v>
       </c>
       <c r="I14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>9.6223829948219916E-2</v>
       </c>
       <c r="J14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>0.24850703121312737</v>
       </c>
       <c r="K14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>0.36114332194777571</v>
       </c>
       <c r="L14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>0.43427415319363083</v>
       </c>
       <c r="M14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>0.45989710825888974</v>
       </c>
       <c r="N14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>0.42103351287919505</v>
       </c>
       <c r="O14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>0.31403028405198169</v>
       </c>
       <c r="P14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>0.18135770441666288</v>
       </c>
       <c r="Q14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>8.5006767304485545E-2</v>
       </c>
       <c r="R14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>3.5331394039037352E-2</v>
       </c>
       <c r="S14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>1.3866652505772757E-2</v>
       </c>
       <c r="T14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>5.3012200619455968E-3</v>
       </c>
       <c r="U14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>2.0007953058086688E-3</v>
       </c>
       <c r="V14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>7.4980009147429592E-4</v>
       </c>
       <c r="W14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>2.7973386676858507E-4</v>
       </c>
       <c r="X14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>1.0403742628987817E-4</v>
       </c>
       <c r="Y14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>3.8603576409152284E-5</v>
       </c>
       <c r="Z14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>1.4298525533979794E-5</v>
       </c>
       <c r="AA14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>5.2886979590072495E-6</v>
       </c>
       <c r="AB14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>1.9540126302420923E-6</v>
       </c>
       <c r="AC14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>7.2131657741483891E-7</v>
       </c>
       <c r="AD14">
-        <f>ba*wa*(1-EXP(-za))/za</f>
+        <f t="shared" si="8"/>
         <v>2.6608607277728986E-7</v>
       </c>
     </row>
@@ -8811,99 +8856,99 @@
         <v>9.3829458906954208E-8</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:AD16" si="5">fd*va/ta*(1-EXP(-ta))</f>
+        <f t="shared" ref="G16:AD16" si="9">fd*va/ta*(1-EXP(-ta))</f>
         <v>6.8803027628375524E-7</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.8368738176116616E-6</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.9842662730875918E-5</v>
       </c>
       <c r="J16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.860375792329143E-4</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.2941451496812271E-3</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.2710378186007689E-3</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.0628926223176575E-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.941760095005536E-2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.7851868211212847E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.3904766937573854E-2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.7965636527160644E-2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.0014766030537023E-2</v>
       </c>
       <c r="S16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.0877949801318729E-2</v>
       </c>
       <c r="T16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1212781668433714E-2</v>
       </c>
       <c r="U16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1338443280741182E-2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1385015409057465E-2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1402195256182507E-2</v>
       </c>
       <c r="X16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1408521738047653E-2</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1410849983629662E-2</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1411706614152137E-2</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1412021766724856E-2</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1412137707017639E-2</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1412180359357424E-2</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1412196050315555E-2</v>
       </c>
     </row>
@@ -8923,99 +8968,99 @@
         <v>3.2777503463853976E-5</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="F17:AD17" si="6">fb*ba/ta*(1-EXP(-ta))</f>
+        <f t="shared" ref="G17:AD17" si="10">fb*ba/ta*(1-EXP(-ta))</f>
         <v>2.4439827899864434E-4</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.5583767860911678E-3</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.4744986215304117E-3</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.131941476754322E-3</v>
       </c>
       <c r="K17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.5767167107814665E-3</v>
       </c>
       <c r="L17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.1513846480710823E-3</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6689970698612525E-3</v>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.0712997023697045E-3</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.6421073788483085E-3</v>
       </c>
       <c r="P17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1303603047345752E-3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0020971376927584E-3</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.105942195866946E-4</v>
       </c>
       <c r="S17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.5763102542156571E-4</v>
       </c>
       <c r="T17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.8932887632545432E-5</v>
       </c>
       <c r="U17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1810713803015914E-5</v>
       </c>
       <c r="V17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.0415195130654976E-6</v>
       </c>
       <c r="W17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.9607267019278662E-6</v>
       </c>
       <c r="X17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0895179479771132E-6</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.0085558906479192E-7</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4747253110295601E-7</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.4252924523544664E-8</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9958645476865295E-8</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.3423902214846772E-9</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.7011164250839634E-9</v>
       </c>
     </row>
@@ -9031,103 +9076,103 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <f>SUM(F16:F17)</f>
+        <f t="shared" ref="F18:AD18" si="11">SUM(F16:F17)</f>
         <v>3.2871332922760931E-5</v>
       </c>
       <c r="G18">
-        <f>SUM(G16:G17)</f>
+        <f t="shared" si="11"/>
         <v>2.4508630927492809E-4</v>
       </c>
       <c r="H18">
-        <f>SUM(H16:H17)</f>
+        <f t="shared" si="11"/>
         <v>1.5632136599087795E-3</v>
       </c>
       <c r="I18">
-        <f>SUM(I16:I17)</f>
+        <f t="shared" si="11"/>
         <v>5.5043412842612875E-3</v>
       </c>
       <c r="J18">
-        <f>SUM(J16:J17)</f>
+        <f t="shared" si="11"/>
         <v>8.3179790559872371E-3</v>
       </c>
       <c r="K18">
-        <f>SUM(K16:K17)</f>
+        <f t="shared" si="11"/>
         <v>9.870861860462694E-3</v>
       </c>
       <c r="L18">
-        <f>SUM(L16:L17)</f>
+        <f t="shared" si="11"/>
         <v>1.6422422466671853E-2</v>
       </c>
       <c r="M18">
-        <f>SUM(M16:M17)</f>
+        <f t="shared" si="11"/>
         <v>3.7297923293037827E-2</v>
       </c>
       <c r="N18">
-        <f>SUM(N16:N17)</f>
+        <f t="shared" si="11"/>
         <v>5.4488900652425065E-2</v>
       </c>
       <c r="O18">
-        <f>SUM(O16:O17)</f>
+        <f t="shared" si="11"/>
         <v>6.1493975590061152E-2</v>
       </c>
       <c r="P18">
-        <f>SUM(P16:P17)</f>
+        <f t="shared" si="11"/>
         <v>6.6035127242308422E-2</v>
       </c>
       <c r="Q18">
-        <f>SUM(Q16:Q17)</f>
+        <f t="shared" si="11"/>
         <v>6.8967733664853398E-2</v>
       </c>
       <c r="R18">
-        <f>SUM(R16:R17)</f>
+        <f t="shared" si="11"/>
         <v>7.042536025012372E-2</v>
       </c>
       <c r="S18">
-        <f>SUM(S16:S17)</f>
+        <f t="shared" si="11"/>
         <v>7.1035580826740288E-2</v>
       </c>
       <c r="T18">
-        <f>SUM(T16:T17)</f>
+        <f t="shared" si="11"/>
         <v>7.1271714556066262E-2</v>
       </c>
       <c r="U18">
-        <f>SUM(U16:U17)</f>
+        <f t="shared" si="11"/>
         <v>7.1360253994544195E-2</v>
       </c>
       <c r="V18">
-        <f>SUM(V16:V17)</f>
+        <f t="shared" si="11"/>
         <v>7.1393056928570536E-2</v>
       </c>
       <c r="W18">
-        <f>SUM(W16:W17)</f>
+        <f t="shared" si="11"/>
         <v>7.1405155982884438E-2</v>
       </c>
       <c r="X18">
-        <f>SUM(X16:X17)</f>
+        <f t="shared" si="11"/>
         <v>7.1409611255995625E-2</v>
       </c>
       <c r="Y18">
-        <f>SUM(Y16:Y17)</f>
+        <f t="shared" si="11"/>
         <v>7.1411250839218732E-2</v>
       </c>
       <c r="Z18">
-        <f>SUM(Z16:Z17)</f>
+        <f t="shared" si="11"/>
         <v>7.1411854086683241E-2</v>
       </c>
       <c r="AA18">
-        <f>SUM(AA16:AA17)</f>
+        <f t="shared" si="11"/>
         <v>7.1412076019649384E-2</v>
       </c>
       <c r="AB18">
-        <f>SUM(AB16:AB17)</f>
+        <f t="shared" si="11"/>
         <v>7.1412157665663112E-2</v>
       </c>
       <c r="AC18">
-        <f>SUM(AC16:AC17)</f>
+        <f t="shared" si="11"/>
         <v>7.1412187701747648E-2</v>
       </c>
       <c r="AD18">
-        <f>SUM(AD16:AD17)</f>
+        <f t="shared" si="11"/>
         <v>7.1412198751431982E-2</v>
       </c>
     </row>

--- a/src/dashboard/data/harvestPolicy/DataFromIan/Selectivity.xlsx
+++ b/src/dashboard/data/harvestPolicy/DataFromIan/Selectivity.xlsx
@@ -495,7 +495,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -538,6 +538,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -547,7 +549,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="23"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="24" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -567,6 +569,7 @@
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -586,6 +589,7 @@
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="23" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="24" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:AH49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/src/dashboard/data/harvestPolicy/DataFromIan/Selectivity.xlsx
+++ b/src/dashboard/data/harvestPolicy/DataFromIan/Selectivity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28880" windowHeight="19960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <definedName name="yd">Sheet2!$B$22</definedName>
     <definedName name="za">Sheet2!$F$8:$AD$8</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcMode="autoNoTable" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -895,7 +895,7 @@
   <dimension ref="A1:AH613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+      <selection activeCell="AH51" sqref="D51:AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
